--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_26504F84918955B57AFF4C88319C82DBE55CC65A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{987159EE-C153-474B-9E74-9327F2A84E4B}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_26504F84918955B57AFF4C88319C82DBE55CC65A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4661875-C846-4D55-9BB1-743A110FB49E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21230,7 +21230,7 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -23458,7 +23458,9 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -25678,21 +25680,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25930,19 +25932,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E771E06F-2D8F-4224-9936-ECD7ACEB9058}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1D49A96-8702-45AD-B7EE-50DF55CC3C92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E771E06F-2D8F-4224-9936-ECD7ACEB9058}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
